--- a/LIMS_Schema_and_Documentation/LIMS-EMR_Dictionary_and_concepts_V2.xlsx
+++ b/LIMS_Schema_and_Documentation/LIMS-EMR_Dictionary_and_concepts_V2.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="iHx4tuSsJQiSm+4UnhGwskAfi2M24Hkeg8FJz/44NJo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="yS6TdSfaqm84k5gbfxk7bTMR9iDIXBRRukGksqT+oyc="/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="473">
   <si>
     <t>ID</t>
   </si>
@@ -432,6 +432,9 @@
     <t>Viral Load/EID Result Request</t>
   </si>
   <si>
+    <t>reponseRequestInformation</t>
+  </si>
+  <si>
     <t>The unique identifier for the facility requesting the result</t>
   </si>
   <si>
@@ -462,12 +465,24 @@
     <t>The unique identifier for the batch whose results are being requested</t>
   </si>
   <si>
+    <t>transfer status</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>Viral Load Result Response</t>
   </si>
   <si>
+    <t>viralLoadTestReport &gt; manifestID</t>
+  </si>
+  <si>
     <t>The unique identifier for the batch whose results are being returned</t>
   </si>
   <si>
+    <t>viralLoadTestReport</t>
+  </si>
+  <si>
     <t>receivingFacilityID</t>
   </si>
   <si>
@@ -498,9 +513,6 @@
     <t>viralLoadTestReport &gt; patientID</t>
   </si>
   <si>
-    <t>viralLoadTestReport</t>
-  </si>
-  <si>
     <t>Laboratory Registration Number i.e Sample ID. Matches what was sent from EMR.</t>
   </si>
   <si>
@@ -528,15 +540,6 @@
     <t>Actual test result (e.g c/ml or some descriptive string). Valid only if sampleTestable is true and the sample status indicates that the sample has been tested successfully. For EID results, this field should read "Positive","Negative" or "Indeterminate"</t>
   </si>
   <si>
-    <t>resultDate</t>
-  </si>
-  <si>
-    <t>Result Date</t>
-  </si>
-  <si>
-    <t>To ne mapped to result date on paper</t>
-  </si>
-  <si>
     <t>assayDate</t>
   </si>
   <si>
@@ -573,18 +576,66 @@
     <t>Coded</t>
   </si>
   <si>
+    <t>Tested By</t>
+  </si>
+  <si>
+    <t>Who performed the test</t>
+  </si>
+  <si>
+    <t>String Type</t>
+  </si>
+  <si>
+    <t>Approved By</t>
+  </si>
+  <si>
+    <t>Who approved Results</t>
+  </si>
+  <si>
+    <t>Secondary_PCR_Lab_ID</t>
+  </si>
+  <si>
+    <t>ID of PCR lab for transferred sample</t>
+  </si>
+  <si>
+    <t>Respond if sample was transferred to another lab and required</t>
+  </si>
+  <si>
+    <t>Secondary_PCR_Lab_Name</t>
+  </si>
+  <si>
+    <t>Name of PCR lab for transferred sample</t>
+  </si>
+  <si>
+    <t>Date Transferred Out</t>
+  </si>
+  <si>
+    <t>Date sample was transferred</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Transfer status</t>
+  </si>
+  <si>
+    <t>Message showing of the different status of the sample transfered</t>
+  </si>
+  <si>
+    <t>code type</t>
+  </si>
+  <si>
     <t>EID Result Response</t>
   </si>
   <si>
+    <t>eidTestReport &gt; manifestID</t>
+  </si>
+  <si>
+    <t>eidTestReport</t>
+  </si>
+  <si>
     <t>eidTestReport &gt; patientID</t>
   </si>
   <si>
-    <t>eidTestReport</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>EID_TEST_RESULT</t>
   </si>
   <si>
@@ -597,49 +648,7 @@
     <t>The reason the sample was not tested, if sampleTestable is false</t>
   </si>
   <si>
-    <t>String Type</t>
-  </si>
-  <si>
     <t>EID_RESULT_REASON_NOT_TESTED</t>
-  </si>
-  <si>
-    <t>Tested By</t>
-  </si>
-  <si>
-    <t>Who performed the test</t>
-  </si>
-  <si>
-    <t>Approved By</t>
-  </si>
-  <si>
-    <t>Who approved Results</t>
-  </si>
-  <si>
-    <t>Secondary_PCR_Lab_ID</t>
-  </si>
-  <si>
-    <t>ID of PCR lab for transferred sample</t>
-  </si>
-  <si>
-    <t>Secondary_PCR_Lab_Name</t>
-  </si>
-  <si>
-    <t>Name of PCR lab for transferred sample</t>
-  </si>
-  <si>
-    <t>Date Transferred Out</t>
-  </si>
-  <si>
-    <t>Date sample was transferred</t>
-  </si>
-  <si>
-    <t>Transfer status</t>
-  </si>
-  <si>
-    <t>Message showing of the different status of the sample transfered</t>
-  </si>
-  <si>
-    <t>code type</t>
   </si>
   <si>
     <t xml:space="preserve">Feedback Notification Response </t>
@@ -1486,7 +1495,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,12 +1518,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1596,20 +1599,20 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1622,11 +1625,11 @@
     <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1867,7 +1870,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.71"/>
     <col customWidth="1" min="2" max="2" width="27.14"/>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
+    <col customWidth="1" min="3" max="3" width="36.86"/>
     <col customWidth="1" min="4" max="4" width="24.29"/>
     <col customWidth="1" hidden="1" min="5" max="5" width="23.14"/>
     <col customWidth="1" min="6" max="6" width="14.71"/>
@@ -3480,11 +3483,14 @@
       <c r="B69" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C69" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>13</v>
@@ -3497,11 +3503,14 @@
       <c r="B70" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C70" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>13</v>
@@ -3510,18 +3519,21 @@
         <v>14</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="B71" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C71" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D71" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>13</v>
@@ -3530,18 +3542,21 @@
         <v>14</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="B72" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C72" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D72" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>13</v>
@@ -3550,18 +3565,21 @@
         <v>14</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="B73" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C73" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D73" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>13</v>
@@ -3570,18 +3588,21 @@
         <v>14</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="B74" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C74" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>13</v>
@@ -3592,30 +3613,33 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="B75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="F75" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>13</v>
@@ -3626,13 +3650,16 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>13</v>
@@ -3643,13 +3670,16 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>13</v>
@@ -3660,33 +3690,36 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>57</v>
@@ -3695,44 +3728,44 @@
         <v>14</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>13</v>
@@ -3740,19 +3773,22 @@
       <c r="G82" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I82" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>13</v>
@@ -3763,16 +3799,16 @@
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>13</v>
@@ -3783,16 +3819,16 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>13</v>
@@ -3800,22 +3836,19 @@
       <c r="G85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>13</v>
@@ -3823,19 +3856,22 @@
       <c r="G86" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I86" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>13</v>
@@ -3846,16 +3882,16 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>13</v>
@@ -3866,19 +3902,19 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="B89" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>14</v>
@@ -3886,16 +3922,16 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="B90" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>25</v>
@@ -3906,78 +3942,56 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="B92" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
+      <c r="G92" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>25</v>
@@ -3988,16 +4002,16 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="B94" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>25</v>
@@ -4008,16 +4022,16 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="B95" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>25</v>
@@ -4028,16 +4042,16 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="B96" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>57</v>
@@ -4046,149 +4060,190 @@
         <v>14</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E97" s="13" t="s">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="E97" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G97" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="F97" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="B98" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A98" s="13"/>
+      <c r="B98" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="B99" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="A99" s="13"/>
+      <c r="B99" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C99" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A100" s="13"/>
+      <c r="B100" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="B101" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="A101" s="13"/>
+      <c r="B101" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D101" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="B102" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A102" s="13"/>
+      <c r="B102" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" s="14"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="B103" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A103" s="13"/>
+      <c r="B103" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="B104" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>13</v>
@@ -4196,25 +4251,22 @@
       <c r="G104" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="B105" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F105" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>14</v>
@@ -4222,19 +4274,19 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="B106" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>14</v>
@@ -4242,19 +4294,19 @@
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="B107" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>14</v>
@@ -4262,59 +4314,59 @@
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="B108" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="G108" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="B109" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="G109" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="B110" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>13</v>
@@ -4322,19 +4374,22 @@
       <c r="G110" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I110" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="B111" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>13</v>
@@ -4345,19 +4400,19 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="B112" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>14</v>
@@ -4365,19 +4420,19 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="B113" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>14</v>
@@ -4385,84 +4440,62 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="B114" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="11"/>
+      <c r="B115" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="B116" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>14</v>
@@ -4470,19 +4503,19 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="B117" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>14</v>
@@ -4490,16 +4523,16 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="B118" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>25</v>
@@ -4510,518 +4543,648 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="B119" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I119" s="4" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14"/>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-      <c r="U120" s="14"/>
-      <c r="V120" s="14"/>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14"/>
+      <c r="B120" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="B121" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="B122" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="B123" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="B124" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F125" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="G125" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
+      <c r="W125" s="16"/>
+      <c r="X125" s="16"/>
+      <c r="Y125" s="16"/>
+      <c r="Z125" s="16"/>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="B126" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="14"/>
+      <c r="B127" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="F127" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="14"/>
+      <c r="U127" s="14"/>
+      <c r="V127" s="14"/>
+      <c r="W127" s="14"/>
+      <c r="X127" s="14"/>
+      <c r="Y127" s="14"/>
+      <c r="Z127" s="14"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="14"/>
+      <c r="B128" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="14"/>
+      <c r="U128" s="14"/>
+      <c r="V128" s="14"/>
+      <c r="W128" s="14"/>
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
+      <c r="Z128" s="14"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="14"/>
+      <c r="B129" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E129" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F129" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H129" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14"/>
+      <c r="U129" s="14"/>
+      <c r="V129" s="14"/>
+      <c r="W129" s="14"/>
+      <c r="X129" s="14"/>
+      <c r="Y129" s="14"/>
+      <c r="Z129" s="14"/>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="14"/>
+      <c r="B130" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="14"/>
+      <c r="U130" s="14"/>
+      <c r="V130" s="14"/>
+      <c r="W130" s="14"/>
+      <c r="X130" s="14"/>
+      <c r="Y130" s="14"/>
+      <c r="Z130" s="14"/>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="14"/>
+      <c r="B131" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="14"/>
+      <c r="U131" s="14"/>
+      <c r="V131" s="14"/>
+      <c r="W131" s="14"/>
+      <c r="X131" s="14"/>
+      <c r="Y131" s="14"/>
+      <c r="Z131" s="14"/>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="14"/>
+      <c r="B132" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
+      <c r="T132" s="14"/>
+      <c r="U132" s="14"/>
+      <c r="V132" s="14"/>
+      <c r="W132" s="14"/>
+      <c r="X132" s="14"/>
+      <c r="Y132" s="14"/>
+      <c r="Z132" s="14"/>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="B133" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="B134" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="B135" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="B136" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="B137" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="B138" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="B139" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="15"/>
-      <c r="U122" s="15"/>
-      <c r="V122" s="15"/>
-      <c r="W122" s="15"/>
-      <c r="X122" s="15"/>
-      <c r="Y122" s="15"/>
-      <c r="Z122" s="15"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E123" s="15" t="s">
+      <c r="I139" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="B140" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="B141" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="B142" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F142" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F123" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="15"/>
-      <c r="S123" s="15"/>
-      <c r="T123" s="15"/>
-      <c r="U123" s="15"/>
-      <c r="V123" s="15"/>
-      <c r="W123" s="15"/>
-      <c r="X123" s="15"/>
-      <c r="Y123" s="15"/>
-      <c r="Z123" s="15"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="15"/>
-      <c r="S124" s="15"/>
-      <c r="T124" s="15"/>
-      <c r="U124" s="15"/>
-      <c r="V124" s="15"/>
-      <c r="W124" s="15"/>
-      <c r="X124" s="15"/>
-      <c r="Y124" s="15"/>
-      <c r="Z124" s="15"/>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="15"/>
-      <c r="U125" s="15"/>
-      <c r="V125" s="15"/>
-      <c r="W125" s="15"/>
-      <c r="X125" s="15"/>
-      <c r="Y125" s="15"/>
-      <c r="Z125" s="15"/>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F126" s="15" t="s">
+      <c r="G142" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="B143" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="B144" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F144" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G126" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-      <c r="S126" s="15"/>
-      <c r="T126" s="15"/>
-      <c r="U126" s="15"/>
-      <c r="V126" s="15"/>
-      <c r="W126" s="15"/>
-      <c r="X126" s="15"/>
-      <c r="Y126" s="15"/>
-      <c r="Z126" s="15"/>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="15"/>
-      <c r="R127" s="15"/>
-      <c r="S127" s="15"/>
-      <c r="T127" s="15"/>
-      <c r="U127" s="15"/>
-      <c r="V127" s="15"/>
-      <c r="W127" s="15"/>
-      <c r="X127" s="15"/>
-      <c r="Y127" s="15"/>
-      <c r="Z127" s="15"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F129" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F130" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F134" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I134" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F136" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F137" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F138" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F139" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
+      <c r="G144" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="145" ht="14.25" customHeight="1"/>
     <row r="146" ht="14.25" customHeight="1"/>
     <row r="147" ht="14.25" customHeight="1"/>
@@ -5879,6 +6042,11 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5914,16 +6082,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5931,10 +6099,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -5942,10 +6110,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -5953,10 +6121,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -5964,10 +6132,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -5975,10 +6143,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -5989,7 +6157,7 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -6000,7 +6168,7 @@
         <v>2.0</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -6011,7 +6179,7 @@
         <v>3.0</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -6022,7 +6190,7 @@
         <v>4.0</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -6030,10 +6198,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -6041,24 +6209,24 @@
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="16" t="s">
-        <v>237</v>
+      <c r="C13" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="16" t="s">
-        <v>238</v>
+      <c r="C14" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -6069,7 +6237,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -6080,7 +6248,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -6091,7 +6259,7 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -6102,7 +6270,7 @@
         <v>4.0</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -6113,7 +6281,7 @@
         <v>5.0</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -6124,7 +6292,7 @@
         <v>6.0</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -6135,7 +6303,7 @@
         <v>7.0</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -6147,7 +6315,7 @@
         <v>8.0</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -6175,13 +6343,13 @@
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C23" s="22">
         <v>1.0</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -6209,13 +6377,13 @@
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C24" s="22">
         <v>2.0</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -6243,13 +6411,13 @@
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C25" s="22">
         <v>3.0</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -6277,13 +6445,13 @@
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C26" s="22">
         <v>4.0</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -6311,13 +6479,13 @@
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="22">
         <v>5.0</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -6350,7 +6518,7 @@
         <v>1.0</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -6361,7 +6529,7 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -6372,7 +6540,7 @@
         <v>3.0</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -6383,7 +6551,7 @@
         <v>4.0</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -6391,10 +6559,10 @@
         <v>107</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -6402,10 +6570,10 @@
         <v>107</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -6413,10 +6581,10 @@
         <v>107</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -6424,10 +6592,10 @@
         <v>107</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
@@ -6438,7 +6606,7 @@
         <v>1.0</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
@@ -6449,7 +6617,7 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -6460,7 +6628,7 @@
         <v>3.0</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -6471,7 +6639,7 @@
         <v>4.0</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
@@ -6482,7 +6650,7 @@
         <v>5.0</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -6493,7 +6661,7 @@
         <v>6.0</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -6504,7 +6672,7 @@
         <v>7.0</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
@@ -6515,7 +6683,7 @@
         <v>8.0</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -6526,7 +6694,7 @@
         <v>1.0</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -6537,7 +6705,7 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -6548,7 +6716,7 @@
         <v>3.0</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
@@ -6559,7 +6727,7 @@
         <v>4.0</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
@@ -6567,10 +6735,10 @@
         <v>116</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -6578,10 +6746,10 @@
         <v>116</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
@@ -6589,10 +6757,10 @@
         <v>116</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
@@ -6600,10 +6768,10 @@
         <v>124</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
@@ -6611,10 +6779,10 @@
         <v>124</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -6622,186 +6790,186 @@
         <v>124</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="B54" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" s="19">
         <v>1.0</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="B55" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="19">
         <v>2.0</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14" t="s">
-        <v>173</v>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C56" s="23">
         <v>1.0</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
+        <v>288</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14" t="s">
-        <v>173</v>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C57" s="23">
         <v>2.0</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
+        <v>289</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
-        <v>173</v>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C58" s="23">
         <v>3.0</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="14"/>
+        <v>290</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14" t="s">
-        <v>173</v>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C59" s="23">
         <v>4.0</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
+        <v>291</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="24"/>
       <c r="B60" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C60" s="25">
         <v>5.0</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>26</v>
@@ -6827,117 +6995,117 @@
       <c r="Z60" s="24"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
-        <v>292</v>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="C61" s="26">
         <v>1.0</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
+      <c r="D61" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15" t="s">
-        <v>292</v>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="C62" s="26">
         <v>2.0</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
+      <c r="D62" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15" t="s">
-        <v>292</v>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="C63" s="26">
         <v>3.0</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
+      <c r="D63" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="15" t="s">
-        <v>292</v>
+      <c r="B64" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="C64" s="28">
         <v>4.0</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
@@ -6963,146 +7131,146 @@
       <c r="Z64" s="27"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="16" t="s">
-        <v>209</v>
+      <c r="B65" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C65" s="30">
         <v>1.0</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="16" t="s">
-        <v>209</v>
+      <c r="B66" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C66" s="30">
         <v>2.0</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="16" t="s">
-        <v>209</v>
+      <c r="B67" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C67" s="30">
         <v>3.0</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="B68" s="16" t="s">
-        <v>209</v>
+      <c r="B68" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C68" s="30">
         <v>4.0</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="B69" s="16" t="s">
-        <v>209</v>
+      <c r="B69" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C69" s="30">
         <v>5.0</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="B70" s="4" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="B71" s="4" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="B72" s="4" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="B73" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C73" s="19">
         <v>1.0</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="B74" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C74" s="19">
         <v>2.0</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="B75" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C75" s="19">
         <v>3.0</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="B76" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C76" s="19">
         <v>4.0</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="B77" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C77" s="19">
         <v>5.0</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -7110,10 +7278,10 @@
         <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -7121,10 +7289,10 @@
         <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -7132,10 +7300,10 @@
         <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -7143,10 +7311,10 @@
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -7154,10 +7322,10 @@
         <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -7165,10 +7333,10 @@
         <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -7176,10 +7344,10 @@
         <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -7187,10 +7355,10 @@
         <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -7198,10 +7366,10 @@
         <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -7209,10 +7377,10 @@
         <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -7220,10 +7388,10 @@
         <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -7231,10 +7399,10 @@
         <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -7242,10 +7410,10 @@
         <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -7253,10 +7421,10 @@
         <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
@@ -7264,10 +7432,10 @@
         <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -7275,10 +7443,10 @@
         <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
@@ -7286,10 +7454,10 @@
         <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
@@ -7297,10 +7465,10 @@
         <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
@@ -7308,10 +7476,10 @@
         <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
@@ -7319,10 +7487,10 @@
         <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
@@ -7330,10 +7498,10 @@
         <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -7341,10 +7509,10 @@
         <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -7352,10 +7520,10 @@
         <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -7363,10 +7531,10 @@
         <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
@@ -7374,10 +7542,10 @@
         <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
@@ -7385,10 +7553,10 @@
         <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
@@ -7396,10 +7564,10 @@
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
@@ -7407,10 +7575,10 @@
         <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
@@ -7418,10 +7586,10 @@
         <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
@@ -7429,10 +7597,10 @@
         <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
@@ -7440,10 +7608,10 @@
         <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
@@ -7451,10 +7619,10 @@
         <v>73</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
@@ -7462,10 +7630,10 @@
         <v>73</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
@@ -7473,10 +7641,10 @@
         <v>73</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
@@ -7484,10 +7652,10 @@
         <v>73</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
@@ -7495,10 +7663,10 @@
         <v>73</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
@@ -7506,10 +7674,10 @@
         <v>73</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
@@ -7517,10 +7685,10 @@
         <v>73</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
@@ -7528,10 +7696,10 @@
         <v>73</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
@@ -7539,10 +7707,10 @@
         <v>73</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -7550,10 +7718,10 @@
         <v>73</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
@@ -7561,10 +7729,10 @@
         <v>73</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
@@ -7572,10 +7740,10 @@
         <v>73</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
@@ -7583,10 +7751,10 @@
         <v>73</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
@@ -7594,10 +7762,10 @@
         <v>73</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
@@ -7605,10 +7773,10 @@
         <v>73</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
@@ -7616,10 +7784,10 @@
         <v>73</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
@@ -7627,10 +7795,10 @@
         <v>73</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
@@ -7638,10 +7806,10 @@
         <v>73</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
@@ -7649,10 +7817,10 @@
         <v>73</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
@@ -7660,10 +7828,10 @@
         <v>73</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
@@ -7671,10 +7839,10 @@
         <v>73</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
@@ -7682,10 +7850,10 @@
         <v>73</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
@@ -7693,10 +7861,10 @@
         <v>73</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -7704,10 +7872,10 @@
         <v>73</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
@@ -7715,10 +7883,10 @@
         <v>73</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
@@ -7726,10 +7894,10 @@
         <v>73</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
@@ -7737,10 +7905,10 @@
         <v>73</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
@@ -7748,10 +7916,10 @@
         <v>73</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
@@ -7759,10 +7927,10 @@
         <v>73</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
@@ -7770,10 +7938,10 @@
         <v>73</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
@@ -7781,10 +7949,10 @@
         <v>73</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
@@ -7792,10 +7960,10 @@
         <v>73</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
@@ -7803,10 +7971,10 @@
         <v>73</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
@@ -7814,10 +7982,10 @@
         <v>73</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
@@ -7825,10 +7993,10 @@
         <v>73</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
@@ -7836,10 +8004,10 @@
         <v>73</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
@@ -7847,10 +8015,10 @@
         <v>73</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
@@ -7858,307 +8026,307 @@
         <v>73</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="B147" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="B148" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="B149" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="B150" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="B151" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="B152" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="B153" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="B154" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="B155" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="B156" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="B157" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="B158" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="B159" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="B160" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="B161" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="B162" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="B163" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="B164" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="B165" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="B166" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="B167" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="B168" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="B169" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="B170" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="B171" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="B172" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="B173" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1"/>
